--- a/concept/public/data/IN-WB.xlsx
+++ b/concept/public/data/IN-WB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,154 +456,144 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-1</t>
+          <t>RANK (R1)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 5</t>
+          <t>SCORE (R1)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-2</t>
+          <t>RANK (R2)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>SCORE (R2)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-3</t>
+          <t>RANK (R3)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>SCORE (R3)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Stary</t>
+          <t>RANK (Stray)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>SCORE (Stray)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 1</t>
+          <t>RANK (Special Stray)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 13</t>
+          <t>SCORE (Special Stray)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 2</t>
+          <t>RANK (Special Stray 2)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 15</t>
+          <t>SCORE (Special Stray 2)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 3</t>
+          <t>RANK (Special Stray 3)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 17</t>
+          <t>SCORE (Special Stray 3)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DURGAPUR, West Bengal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gouri Devi Institute Of Medical Sciences And Hospital, Durgapur</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1034173</v>
+      </c>
+      <c r="F2" t="n">
+        <v>186</v>
+      </c>
+      <c r="G2" t="n">
+        <v>729707</v>
+      </c>
+      <c r="H2" t="n">
+        <v>262</v>
+      </c>
+      <c r="I2" t="n">
+        <v>574211</v>
+      </c>
+      <c r="J2" t="n">
+        <v>314</v>
+      </c>
+      <c r="K2" t="n">
+        <v>549183</v>
+      </c>
+      <c r="L2" t="n">
+        <v>323</v>
+      </c>
+      <c r="M2" t="n">
+        <v>787447</v>
+      </c>
+      <c r="N2" t="n">
+        <v>246</v>
+      </c>
+      <c r="O2" t="n">
+        <v>89097</v>
+      </c>
+      <c r="P2" t="n">
+        <v>590</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>RANK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>SCORE</t>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -612,7 +602,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gouri Devi Institute Of Medical Sciences And Hospital, Durgapur</t>
+          <t xml:space="preserve"> IQ-City Medical College, Burdwan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -621,40 +611,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1034173</v>
+        <v>1125076</v>
       </c>
       <c r="F3" t="n">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G3" t="n">
-        <v>729707</v>
+        <v>618576</v>
       </c>
       <c r="H3" t="n">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="I3" t="n">
-        <v>574211</v>
+        <v>635707</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="K3" t="n">
-        <v>549183</v>
+        <v>725252</v>
       </c>
       <c r="L3" t="n">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="M3" t="n">
-        <v>787447</v>
+        <v>774498</v>
       </c>
       <c r="N3" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O3" t="n">
-        <v>89097</v>
+        <v>172459</v>
       </c>
       <c r="P3" t="n">
-        <v>590</v>
+        <v>523</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -669,16 +659,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DURGAPUR, West Bengal</t>
+          <t>Burdwan, West Bengal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IQ-City Medical College, Burdwan</t>
+          <t>EAST WEST IMS, Burdwan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -686,65 +676,81 @@
           <t>OPEN</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1125076</v>
-      </c>
-      <c r="F4" t="n">
-        <v>169</v>
-      </c>
-      <c r="G4" t="n">
-        <v>618576</v>
-      </c>
-      <c r="H4" t="n">
-        <v>298</v>
-      </c>
-      <c r="I4" t="n">
-        <v>635707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>292</v>
-      </c>
-      <c r="K4" t="n">
-        <v>725252</v>
-      </c>
-      <c r="L4" t="n">
-        <v>264</v>
-      </c>
-      <c r="M4" t="n">
-        <v>774498</v>
-      </c>
-      <c r="N4" t="n">
-        <v>249</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="O4" t="n">
-        <v>172459</v>
+        <v>729099</v>
       </c>
       <c r="P4" t="n">
-        <v>523</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>262</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>833157</v>
+      </c>
+      <c r="R4" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Burdwan, West Bengal</t>
+          <t>HALDIA, West Bengal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EAST WEST IMS, Burdwan</t>
+          <t>ICARE Institute Of Medical Sciences &amp; Research, Haldia, Purba Midanpore</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -752,81 +758,73 @@
           <t>OPEN</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>758057</v>
+      </c>
+      <c r="F5" t="n">
+        <v>254</v>
+      </c>
+      <c r="G5" t="n">
+        <v>249863</v>
+      </c>
+      <c r="H5" t="n">
+        <v>470</v>
+      </c>
+      <c r="I5" t="n">
+        <v>298111</v>
+      </c>
+      <c r="J5" t="n">
+        <v>441</v>
+      </c>
+      <c r="K5" t="n">
+        <v>82667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>595</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>729099</v>
-      </c>
-      <c r="P5" t="n">
-        <v>262</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>833157</v>
-      </c>
-      <c r="R5" t="n">
-        <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HALDIA, West Bengal</t>
+          <t>KOLKATA, West Bengal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ICARE Institute Of Medical Sciences &amp; Research, Haldia, Purba Midanpore</t>
+          <t>Jagannath Gupta Institute Of Medical Sciences &amp; Hospital, Kolkata</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -835,48 +833,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>758057</v>
+        <v>794811</v>
       </c>
       <c r="F6" t="n">
+        <v>244</v>
+      </c>
+      <c r="G6" t="n">
+        <v>505701</v>
+      </c>
+      <c r="H6" t="n">
+        <v>341</v>
+      </c>
+      <c r="I6" t="n">
+        <v>493502</v>
+      </c>
+      <c r="J6" t="n">
+        <v>346</v>
+      </c>
+      <c r="K6" t="n">
+        <v>756363</v>
+      </c>
+      <c r="L6" t="n">
         <v>254</v>
       </c>
-      <c r="G6" t="n">
-        <v>249863</v>
-      </c>
-      <c r="H6" t="n">
-        <v>470</v>
-      </c>
-      <c r="I6" t="n">
-        <v>298111</v>
-      </c>
-      <c r="J6" t="n">
-        <v>441</v>
-      </c>
-      <c r="K6" t="n">
-        <v>82667</v>
-      </c>
-      <c r="L6" t="n">
-        <v>595</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="M6" t="n">
+        <v>829674</v>
+      </c>
+      <c r="N6" t="n">
+        <v>234</v>
+      </c>
+      <c r="O6" t="n">
+        <v>253911</v>
+      </c>
+      <c r="P6" t="n">
+        <v>468</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -891,16 +881,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KOLKATA, West Bengal</t>
+          <t>Srikantabati, West Bengal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jagannath Gupta Institute Of Medical Sciences &amp; Hospital, Kolkata</t>
+          <t>JAKIR HOSAIN, Srikantabati</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -908,65 +898,81 @@
           <t>OPEN</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>794811</v>
-      </c>
-      <c r="F7" t="n">
-        <v>244</v>
-      </c>
-      <c r="G7" t="n">
-        <v>505701</v>
-      </c>
-      <c r="H7" t="n">
-        <v>341</v>
-      </c>
-      <c r="I7" t="n">
-        <v>493502</v>
-      </c>
-      <c r="J7" t="n">
-        <v>346</v>
-      </c>
-      <c r="K7" t="n">
-        <v>756363</v>
-      </c>
-      <c r="L7" t="n">
-        <v>254</v>
-      </c>
-      <c r="M7" t="n">
-        <v>829674</v>
-      </c>
-      <c r="N7" t="n">
-        <v>234</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="O7" t="n">
-        <v>253911</v>
+        <v>827260</v>
       </c>
       <c r="P7" t="n">
-        <v>468</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>235</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>842211</v>
+      </c>
+      <c r="R7" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srikantabati, West Bengal</t>
+          <t>KOLKATA, West Bengal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JAKIR HOSAIN, Srikantabati</t>
+          <t>JIS School Of Medical Science &amp; Research, Howrah</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -974,81 +980,65 @@
           <t>OPEN</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>1298333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>140</v>
+      </c>
+      <c r="G8" t="n">
+        <v>477870</v>
+      </c>
+      <c r="H8" t="n">
+        <v>352</v>
+      </c>
+      <c r="I8" t="n">
+        <v>289948</v>
+      </c>
+      <c r="J8" t="n">
+        <v>446</v>
+      </c>
+      <c r="K8" t="n">
+        <v>756657</v>
+      </c>
+      <c r="L8" t="n">
+        <v>254</v>
+      </c>
+      <c r="M8" t="n">
+        <v>820060</v>
+      </c>
+      <c r="N8" t="n">
+        <v>237</v>
+      </c>
+      <c r="O8" t="n">
+        <v>139625</v>
+      </c>
+      <c r="P8" t="n">
+        <v>548</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>827260</v>
-      </c>
-      <c r="P8" t="n">
-        <v>235</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>842211</v>
-      </c>
-      <c r="R8" t="n">
-        <v>231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KOLKATA, West Bengal</t>
+          <t>NADIA, West Bengal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JIS School Of Medical Science &amp; Research, Howrah</t>
+          <t>JMN Medical College, Nadia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1057,64 +1047,64 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1298333</v>
+        <v>1385127</v>
       </c>
       <c r="F9" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>477870</v>
+        <v>838366</v>
       </c>
       <c r="H9" t="n">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="I9" t="n">
-        <v>289948</v>
+        <v>510146</v>
       </c>
       <c r="J9" t="n">
-        <v>446</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
-        <v>756657</v>
+        <v>622963</v>
       </c>
       <c r="L9" t="n">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="M9" t="n">
-        <v>820060</v>
+        <v>831281</v>
       </c>
       <c r="N9" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O9" t="n">
-        <v>139625</v>
+        <v>129187</v>
       </c>
       <c r="P9" t="n">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NADIA, West Bengal</t>
+          <t>KOLKATA, West Bengal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JMN Medical College, Nadia</t>
+          <t>KPC Medical College,Jadavpur,Kolkata</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1123,40 +1113,44 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1385127</v>
+        <v>113252</v>
       </c>
       <c r="F10" t="n">
-        <v>128</v>
+        <v>569</v>
       </c>
       <c r="G10" t="n">
-        <v>838366</v>
+        <v>84055</v>
       </c>
       <c r="H10" t="n">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="I10" t="n">
-        <v>510146</v>
+        <v>109189</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>573</v>
       </c>
       <c r="K10" t="n">
-        <v>622963</v>
+        <v>91608</v>
       </c>
       <c r="L10" t="n">
-        <v>296</v>
+        <v>587</v>
       </c>
       <c r="M10" t="n">
-        <v>831281</v>
+        <v>99574</v>
       </c>
       <c r="N10" t="n">
-        <v>234</v>
-      </c>
-      <c r="O10" t="n">
-        <v>129187</v>
-      </c>
-      <c r="P10" t="n">
-        <v>556</v>
+        <v>581</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1171,16 +1165,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KOLKATA, West Bengal</t>
+          <t>IMS, West Bengal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KPC Medical College,Jadavpur,Kolkata</t>
+          <t>KRISHNANAGAR IMS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1189,44 +1183,40 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>113252</v>
+        <v>827871</v>
       </c>
       <c r="F11" t="n">
-        <v>569</v>
+        <v>235</v>
       </c>
       <c r="G11" t="n">
-        <v>84055</v>
+        <v>753389</v>
       </c>
       <c r="H11" t="n">
-        <v>594</v>
+        <v>255</v>
       </c>
       <c r="I11" t="n">
-        <v>109189</v>
+        <v>488945</v>
       </c>
       <c r="J11" t="n">
-        <v>573</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>91608</v>
+        <v>713193</v>
       </c>
       <c r="L11" t="n">
-        <v>587</v>
+        <v>267</v>
       </c>
       <c r="M11" t="n">
-        <v>99574</v>
+        <v>834969</v>
       </c>
       <c r="N11" t="n">
-        <v>581</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>233</v>
+      </c>
+      <c r="O11" t="n">
+        <v>126077</v>
+      </c>
+      <c r="P11" t="n">
+        <v>559</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1241,16 +1231,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IMS, West Bengal</t>
+          <t>BOLPUR, West Bengal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KRISHNANAGAR IMS</t>
+          <t>Santiniketan Medical College, Bolpur, West Bengal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1259,64 +1249,60 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>827871</v>
+        <v>1333433</v>
       </c>
       <c r="F12" t="n">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="G12" t="n">
-        <v>753389</v>
+        <v>899198</v>
       </c>
       <c r="H12" t="n">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="I12" t="n">
-        <v>488945</v>
+        <v>708438</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="K12" t="n">
-        <v>713193</v>
+        <v>775055</v>
       </c>
       <c r="L12" t="n">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="M12" t="n">
-        <v>834969</v>
+        <v>834015</v>
       </c>
       <c r="N12" t="n">
         <v>233</v>
       </c>
       <c r="O12" t="n">
-        <v>126077</v>
+        <v>502874</v>
       </c>
       <c r="P12" t="n">
-        <v>559</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>342</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>838285</v>
+      </c>
+      <c r="R12" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOLPUR, West Bengal</t>
+          <t>DURGAPUR, West Bengal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Santiniketan Medical College, Bolpur, West Bengal</t>
+          <t>Shri Ramkrishna Institute Of Medical Sciences &amp; Sanaka Hospitals, Durgapur</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1325,113 +1311,71 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1333433</v>
+        <v>1386322</v>
       </c>
       <c r="F13" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G13" t="n">
-        <v>899198</v>
+        <v>889794</v>
       </c>
       <c r="H13" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I13" t="n">
-        <v>708438</v>
+        <v>610704</v>
       </c>
       <c r="J13" t="n">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="K13" t="n">
-        <v>775055</v>
+        <v>657876</v>
       </c>
       <c r="L13" t="n">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="M13" t="n">
-        <v>834015</v>
+        <v>800646</v>
       </c>
       <c r="N13" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O13" t="n">
-        <v>502874</v>
+        <v>304717</v>
       </c>
       <c r="P13" t="n">
-        <v>342</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>838285</v>
-      </c>
-      <c r="R13" t="n">
-        <v>232</v>
+        <v>437</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DURGAPUR, West Bengal</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Shri Ramkrishna Institute Of Medical Sciences &amp; Sanaka Hospitals, Durgapur</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1386322</v>
-      </c>
-      <c r="F14" t="n">
-        <v>128</v>
-      </c>
-      <c r="G14" t="n">
-        <v>889794</v>
-      </c>
-      <c r="H14" t="n">
-        <v>219</v>
-      </c>
-      <c r="I14" t="n">
-        <v>610704</v>
-      </c>
-      <c r="J14" t="n">
-        <v>301</v>
-      </c>
-      <c r="K14" t="n">
-        <v>657876</v>
-      </c>
-      <c r="L14" t="n">
-        <v>285</v>
-      </c>
-      <c r="M14" t="n">
-        <v>800646</v>
-      </c>
-      <c r="N14" t="n">
-        <v>242</v>
-      </c>
-      <c r="O14" t="n">
-        <v>304717</v>
-      </c>
-      <c r="P14" t="n">
-        <v>437</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1455,31 +1399,11 @@
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>College Name</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Type of Charges</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Times to Pay</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Total Amount</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1495,29 +1419,11 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>KPC Medical College, Jadavpur, Kolkata</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>₹ 8,00,000</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>₹ 72,00,000</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1534,24 +1440,10 @@
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hostel Only</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>₹ 54,000</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>₹ 2,43,000</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1568,24 +1460,10 @@
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1602,24 +1480,10 @@
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1636,24 +1500,10 @@
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1670,18 +1520,10 @@
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>₹ 74,93,000</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1698,11 +1540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 1,50,65,000 plus Hostel</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1721,29 +1559,11 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>IQ City Medical College, Durgapur</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>₹ 10,94,000</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>₹ 98,46,000</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1760,24 +1580,10 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>₹ 1,77,364</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>₹ 7,98,138</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1794,24 +1600,10 @@
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>₹ 10,000</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>₹ 10,000</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1828,24 +1620,10 @@
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>₹ 1,00,000</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>₹ 1,00,000</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1862,24 +1640,10 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1896,18 +1660,10 @@
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>₹ 1,07,54,138</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1924,11 +1680,7 @@
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Options (IQ City Medical College)</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1948,26 +1700,10 @@
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1984,26 +1720,10 @@
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>₹ 2,01,926</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>₹ 9,08,667</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>₹ 1,08,64,667</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2020,26 +1740,10 @@
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Hostel (Single Bed No-AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>₹ 2,18,054</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>₹ 9,81,243</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>₹ 1,09,37,243</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2056,26 +1760,10 @@
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>₹ 2,18,054</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>₹ 9,81,243</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>₹ 1,09,37,243</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2092,26 +1780,10 @@
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>₹ 2,34,518</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>₹ 10,55,331</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>₹ 1,10,11,331</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2128,26 +1800,10 @@
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Hostel (Single Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>₹ 2,16,000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>₹ 9,72,000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>₹ 1,09,28,000</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2163,29 +1819,11 @@
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>I Care IMS, Haldia</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>₹ 9,50,000</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>₹ 85,50,000</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2202,24 +1840,10 @@
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Hostel without Food Charges</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>₹ 60,000</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>₹ 2,70,000</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2236,24 +1860,10 @@
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees, Library</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>₹ 30,000</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>₹ 30,000</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2270,24 +1880,10 @@
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2304,24 +1900,10 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2338,18 +1920,10 @@
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>₹ 89,00,000</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2366,11 +1940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 1.30 Cr plus Hostel</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2389,29 +1959,11 @@
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Jagannath Gupta Institute of Medical Sciences, Kolkata</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>₹ 10,94,000</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>9</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>₹ 98,46,000</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2428,24 +1980,10 @@
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>₹ 1,44,000</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>₹ 6,48,000</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2462,24 +2000,10 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2496,24 +2020,10 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2530,24 +2040,10 @@
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2564,18 +2060,10 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>₹ 1,05,69,000</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -2592,11 +2080,7 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 1.20 Cr plus Hostel</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -2616,11 +2100,7 @@
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Options (Jagannath Gupta)</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
@@ -2640,26 +2120,10 @@
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2676,26 +2140,10 @@
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>₹ 1,68,000</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>₹ 7,56,000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>₹ 1,06,77,000</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2712,26 +2160,10 @@
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Hostel (Single Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>₹ 2,16,000</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>₹ 9,72,000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>₹ 1,08,93,000</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2747,29 +2179,11 @@
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Gouri Devi Institute of Medical Sciences, Durgapur</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>₹ 11,00,000</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>9</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>₹ 99,00,000</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2786,24 +2200,10 @@
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>₹ 1,60,000</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>₹ 7,20,000</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2820,24 +2220,10 @@
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2854,24 +2240,10 @@
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2888,24 +2260,10 @@
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2922,18 +2280,10 @@
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>₹ 1,06,70,000</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2950,11 +2300,7 @@
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 1.30 Cr plus Hostel</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -2974,11 +2320,7 @@
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Option (Gouri Devi)</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -2998,26 +2340,10 @@
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3034,26 +2360,10 @@
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>₹ 2,00,000</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>₹ 8,00,000</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>₹ 1,08,50,000</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3069,29 +2379,11 @@
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Shri Ramkrishna IMS SANAKA, Durgapur</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>₹ 10,94,000</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>9</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>₹ 98,46,000</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -3108,24 +2400,10 @@
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Hostel (4 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>₹ 1,74,000</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>₹ 7,83,000</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -3142,24 +2420,10 @@
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3176,24 +2440,10 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -3210,24 +2460,10 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -3244,18 +2480,10 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>₹ 1,06,79,000</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3272,11 +2500,7 @@
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 1.25 Cr plus Hostel</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
@@ -3296,11 +2520,7 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Options (Shri Ramkrishna IMS)</t>
-        </is>
-      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -3320,26 +2540,10 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -3356,26 +2560,10 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>₹ 2,16,000</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>₹ 9,72,000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>₹ 1,08,68,000</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -3392,26 +2580,10 @@
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>₹ 2,72,000</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>₹ 12,24,000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>₹ 1,11,20,000</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -3428,26 +2600,10 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>₹ 3,22,000</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>₹ 14,49,000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>₹ 1,13,45,000</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -3463,29 +2619,11 @@
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Santiniketan Medical College, Bolpur</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>₹ 9,50,000</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>9</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>₹ 85,50,000</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3502,24 +2640,10 @@
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>₹ 1,58,400</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>₹ 7,12,800</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3536,24 +2660,10 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>₹ 40,001</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>₹ 40,001</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3570,24 +2680,10 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3604,24 +2700,10 @@
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3638,18 +2720,10 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>₹ 93,52,801</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3666,11 +2740,7 @@
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 1.20 Cr plus Hostel</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
@@ -3690,11 +2760,7 @@
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Options (Santiniketan)</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
@@ -3714,26 +2780,10 @@
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3750,26 +2800,10 @@
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>₹ 1,93,200</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>₹ 8,69,400</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>₹ 95,09,401</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3786,26 +2820,10 @@
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Hostel (Single Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>₹ 2,31,600</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>₹ 10,42,200</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>₹ 96,82,201</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3821,29 +2839,11 @@
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>JMN Medical College, Nadia</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>₹ 9,50,000</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>9</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>₹ 85,50,000</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3860,24 +2860,10 @@
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>₹ 1,44,000</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>₹ 6,48,000</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3894,24 +2880,10 @@
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>₹ 1,85,000</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>₹ 1,85,000</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3928,24 +2900,10 @@
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
@@ -3962,24 +2920,10 @@
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3996,18 +2940,10 @@
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>₹ 94,33,000</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -4024,11 +2960,7 @@
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: ₹ 92 Lakhs plus Hostel</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -4048,11 +2980,7 @@
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Option (JMN Medical College)</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -4072,26 +3000,10 @@
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -4108,26 +3020,10 @@
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>₹ 1,96,000</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>₹ 8,82,000</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>₹ 96,67,000</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -4143,29 +3039,11 @@
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>JIS School of Medical Science &amp; Research, Howrah</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>₹ 10,85,000</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>9</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>₹ 97,65,000</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -4182,24 +3060,10 @@
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>₹ 2,00,000</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>₹ 9,00,000</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -4216,24 +3080,10 @@
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees, Library</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>₹ 1,12,500</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4250,24 +3100,10 @@
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -4284,24 +3120,10 @@
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>₹ 15,000</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -4318,18 +3140,10 @@
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>₹ 1,08,27,500</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -4346,11 +3160,7 @@
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>NRI QUOTA: Total Course Fees: USD 1,60,000 plus Hostel</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
@@ -4370,11 +3180,7 @@
     <row r="105">
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Total Budget With Other Hostel Option (JIS Howrah)</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
@@ -4394,26 +3200,10 @@
     <row r="106">
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -4430,26 +3220,10 @@
     <row r="107">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Hostel (2 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>₹ 2,50,000</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>₹ 11,25,000</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>₹ 1,10,52,500</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4465,29 +3239,11 @@
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Krishnanagar Institute of Medical Sciences</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>₹ 10,00,000</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>9</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>₹ 90,00,000</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4504,24 +3260,10 @@
     <row r="109">
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>₹ 1,62,000</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>₹ 7,29,000</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4538,24 +3280,10 @@
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4572,24 +3300,10 @@
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4606,24 +3320,10 @@
     <row r="112">
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4640,18 +3340,10 @@
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>₹ 98,04,000</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4667,29 +3359,11 @@
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Jakir Hossain Medical College, Murshidabad</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>₹ 10,00,000</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>9</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>₹ 90,00,000</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4706,24 +3380,10 @@
     <row r="115">
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>₹ 1,60,000</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>₹ 7,20,000</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4740,24 +3400,10 @@
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4774,24 +3420,10 @@
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4808,24 +3440,10 @@
     <row r="118">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4842,18 +3460,10 @@
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>₹ 97,95,000</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4869,29 +3479,11 @@
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>East West IMS, Purba Bardhman</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Tuition Fees (Per Sem.) M.Q.</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>₹ 10,00,000</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>9</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>₹ 90,00,000</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4908,24 +3500,10 @@
     <row r="121">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed Non AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>₹ 1,60,000</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>₹ 7,20,000</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4942,24 +3520,10 @@
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Sports &amp; Culture Fees</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>₹ 0</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4976,24 +3540,10 @@
     <row r="123">
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Admission charges</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>₹ 50,000</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -5010,24 +3560,10 @@
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Refundable Deposit</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>₹ 25,000</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -5044,18 +3580,10 @@
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>TOTAL BUDGET (Excluding Refundable Security Deposit)</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>₹ 97,70,000</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -5064,7 +3592,11 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Complete Package</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
@@ -5072,26 +3604,10 @@
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Hostel Type</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Yearly Charges</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Total Charges</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Complete Package</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -5102,7 +3618,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Complete Package</t>
+          <t>₹ 99,50,000</t>
         </is>
       </c>
       <c r="P126" t="inlineStr"/>
@@ -5112,26 +3628,10 @@
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Hostel (3 Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>₹ 2,00,000</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>₹ 9,00,000</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>₹ 99,50,000</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -5142,52 +3642,12 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>₹ 99,50,000</t>
+          <t>₹ 1,01,75,000</t>
         </is>
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Hostel (Single Bed AC) &amp; Mess</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>₹ 2,50,000</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>₹ 11,25,000</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>₹ 1,01,75,000</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>₹ 1,01,75,000</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
